--- a/Data/Population static - density vary - area vary/simulation 100m2-population static-density vary-table.xlsx
+++ b/Data/Population static - density vary - area vary/simulation 100m2-population static-density vary-table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itbdsti-my.sharepoint.com/personal/20920007_mahasiswa_itb_ac_id/Documents/#THESIS Resource/thesis-abm/Data Yg Bener/Population static - density vary - area vary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itbdsti-my.sharepoint.com/personal/20920007_mahasiswa_itb_ac_id/Documents/#THESIS Resource/thesis-abm/Data/Population static - density vary - area vary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{660B3C3F-D689-4F00-B043-F2C15D400510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:40009_{660B3C3F-D689-4F00-B043-F2C15D400510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86D3DBF8-456B-C84A-9D2E-5298EAF09684}"/>
   <bookViews>
-    <workbookView xWindow="7725" yWindow="0" windowWidth="21015" windowHeight="15600"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation 100m2-population sta" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'simulation 100m2-population sta'!$A$1:$AE$601</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -127,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -961,18 +974,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A602" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A566" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE469" sqref="AE469"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1080,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1162,7 +1175,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1257,7 +1270,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1352,7 +1365,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1447,7 +1460,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1542,7 +1555,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1637,7 +1650,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1732,7 +1745,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1827,7 +1840,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1922,7 +1935,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2017,7 +2030,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2112,7 +2125,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2207,7 +2220,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2302,7 +2315,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2397,7 +2410,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2492,7 +2505,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2587,7 +2600,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2682,7 +2695,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2777,7 +2790,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2872,7 +2885,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2967,7 +2980,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3062,7 +3075,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3157,7 +3170,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3252,7 +3265,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3347,7 +3360,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3442,7 +3455,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3537,7 +3550,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3632,7 +3645,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3727,7 +3740,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3822,7 +3835,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3917,7 +3930,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4012,7 +4025,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4107,7 +4120,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4202,7 +4215,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4297,7 +4310,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4392,7 +4405,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4487,7 +4500,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4582,7 +4595,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4677,7 +4690,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4772,7 +4785,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4867,7 +4880,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4962,7 +4975,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5057,7 +5070,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5152,7 +5165,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5247,7 +5260,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5342,7 +5355,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5437,7 +5450,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5532,7 +5545,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="49" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5627,7 +5640,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="50" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5722,7 +5735,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="51" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5817,7 +5830,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="52" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5912,7 +5925,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6007,7 +6020,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6102,7 +6115,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6197,7 +6210,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6292,7 +6305,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6387,7 +6400,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6482,7 +6495,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="59" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6577,7 +6590,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6672,7 +6685,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6767,7 +6780,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6862,7 +6875,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6957,7 +6970,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7052,7 +7065,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7147,7 +7160,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7242,7 +7255,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7337,7 +7350,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7432,7 +7445,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7527,7 +7540,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7622,7 +7635,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7717,7 +7730,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="72" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7812,7 +7825,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7907,7 +7920,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="74" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8002,7 +8015,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="75" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8097,7 +8110,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8192,7 +8205,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="77" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8287,7 +8300,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="78" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8382,7 +8395,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="79" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8477,7 +8490,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="80" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8572,7 +8585,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="81" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8667,7 +8680,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8762,7 +8775,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="83" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8857,7 +8870,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="84" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8952,7 +8965,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="85" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9047,7 +9060,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="86" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9142,7 +9155,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="87" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9237,7 +9250,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="88" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9332,7 +9345,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="89" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9427,7 +9440,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="90" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9522,7 +9535,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="91" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9617,7 +9630,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="92" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9712,7 +9725,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="93" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9807,7 +9820,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="94" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -9902,7 +9915,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="95" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -9997,7 +10010,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="96" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -10092,7 +10105,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="97" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -10187,7 +10200,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -10282,7 +10295,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="99" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -10377,7 +10390,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="100" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10472,7 +10485,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="101" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -10567,7 +10580,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="102" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -10662,7 +10675,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="103" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -10757,7 +10770,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="104" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -10852,7 +10865,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="105" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -10947,7 +10960,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="106" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -11042,7 +11055,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="107" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -11137,7 +11150,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="108" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -11232,7 +11245,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="109" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -11327,7 +11340,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="110" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -11422,7 +11435,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="111" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -11517,7 +11530,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="112" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -11612,7 +11625,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="113" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -11707,7 +11720,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="114" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -11802,7 +11815,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="115" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -11897,7 +11910,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="116" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -11992,7 +12005,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="117" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -12087,7 +12100,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="118" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -12182,7 +12195,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="119" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -12277,7 +12290,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="120" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -12372,7 +12385,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="121" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -12467,7 +12480,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="122" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -12562,7 +12575,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="123" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -12657,7 +12670,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="124" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -12752,7 +12765,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="125" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -12847,7 +12860,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="126" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -12942,7 +12955,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="127" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -13037,7 +13050,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="128" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -13132,7 +13145,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="129" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -13227,7 +13240,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="130" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -13322,7 +13335,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="131" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -13417,7 +13430,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="132" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -13512,7 +13525,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="133" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -13607,7 +13620,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="134" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13702,7 +13715,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="135" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -13797,7 +13810,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="136" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -13892,7 +13905,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="137" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -13987,7 +14000,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="138" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -14082,7 +14095,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="139" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -14177,7 +14190,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="140" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -14272,7 +14285,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="141" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -14367,7 +14380,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="142" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -14462,7 +14475,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="143" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -14557,7 +14570,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="144" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -14652,7 +14665,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="145" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -14747,7 +14760,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="146" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -14842,7 +14855,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="147" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -14937,7 +14950,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="148" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -15032,7 +15045,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="149" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -15127,7 +15140,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="150" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -15222,7 +15235,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="151" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -15317,7 +15330,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="152" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -15412,7 +15425,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="153" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -15507,7 +15520,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="154" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -15602,7 +15615,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="155" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -15697,7 +15710,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="156" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -15792,7 +15805,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="157" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -15887,7 +15900,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="158" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -15982,7 +15995,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="159" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -16077,7 +16090,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="160" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -16172,7 +16185,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="161" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -16267,7 +16280,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="162" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -16362,7 +16375,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="163" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -16457,7 +16470,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="164" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -16552,7 +16565,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="165" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -16647,7 +16660,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="166" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -16742,7 +16755,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="167" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -16837,7 +16850,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="168" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -16932,7 +16945,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="169" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -17027,7 +17040,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="170" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -17122,7 +17135,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="171" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -17217,7 +17230,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="172" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -17312,7 +17325,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="173" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -17407,7 +17420,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="174" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -17502,7 +17515,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="175" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -17597,7 +17610,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="176" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -17692,7 +17705,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="177" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -17787,7 +17800,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="178" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -17882,7 +17895,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="179" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -17977,7 +17990,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="180" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -18072,7 +18085,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="181" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -18167,7 +18180,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="182" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -18262,7 +18275,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="183" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -18357,7 +18370,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="184" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -18452,7 +18465,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="185" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -18547,7 +18560,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="186" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -18642,7 +18655,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="187" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -18737,7 +18750,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="188" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -18832,7 +18845,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="189" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -18927,7 +18940,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="190" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -19022,7 +19035,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="191" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -19117,7 +19130,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="192" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -19212,7 +19225,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="193" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -19307,7 +19320,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="194" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -19402,7 +19415,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="195" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -19497,7 +19510,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="196" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -19592,7 +19605,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="197" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -19687,7 +19700,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="198" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -19782,7 +19795,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="199" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -19877,7 +19890,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="200" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -19972,7 +19985,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="201" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -20067,7 +20080,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="202" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -20162,7 +20175,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="203" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -20257,7 +20270,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="204" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -20352,7 +20365,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="205" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -20447,7 +20460,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="206" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -20542,7 +20555,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="207" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -20637,7 +20650,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="208" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -20732,7 +20745,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="209" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -20827,7 +20840,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="210" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -20922,7 +20935,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="211" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -21017,7 +21030,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="212" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -21112,7 +21125,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="213" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -21207,7 +21220,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="214" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -21302,7 +21315,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="215" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -21397,7 +21410,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="216" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -21492,7 +21505,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="217" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -21587,7 +21600,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="218" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -21682,7 +21695,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="219" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -21777,7 +21790,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="220" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -21872,7 +21885,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="221" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -21967,7 +21980,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="222" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -22062,7 +22075,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="223" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -22157,7 +22170,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="224" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -22252,7 +22265,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="225" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -22347,7 +22360,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="226" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -22442,7 +22455,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="227" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -22537,7 +22550,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="228" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
@@ -22632,7 +22645,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="229" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -22727,7 +22740,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="230" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -22822,7 +22835,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="231" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
@@ -22917,7 +22930,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="232" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -23012,7 +23025,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="233" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -23107,7 +23120,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="234" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -23202,7 +23215,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="235" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -23297,7 +23310,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="236" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -23392,7 +23405,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="237" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -23487,7 +23500,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="238" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -23582,7 +23595,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="239" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -23677,7 +23690,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="240" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -23772,7 +23785,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="241" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -23867,7 +23880,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="242" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -23962,7 +23975,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="243" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -24057,7 +24070,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="244" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
@@ -24152,7 +24165,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="245" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
@@ -24247,7 +24260,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="246" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -24342,7 +24355,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="247" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -24437,7 +24450,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="248" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -24532,7 +24545,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="249" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -24627,7 +24640,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="250" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
@@ -24722,7 +24735,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="251" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
@@ -24817,7 +24830,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="252" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
@@ -24912,7 +24925,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="253" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
@@ -25007,7 +25020,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="254" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
@@ -25102,7 +25115,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="255" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
@@ -25197,7 +25210,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="256" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
@@ -25292,7 +25305,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="257" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
@@ -25387,7 +25400,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="258" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
@@ -25482,7 +25495,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="259" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
@@ -25577,7 +25590,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="260" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
@@ -25672,7 +25685,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="261" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
@@ -25767,7 +25780,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="262" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
@@ -25862,7 +25875,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="263" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
@@ -25957,7 +25970,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="264" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
@@ -26052,7 +26065,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="265" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
@@ -26147,7 +26160,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="266" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
@@ -26242,7 +26255,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="267" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
@@ -26337,7 +26350,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="268" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
@@ -26432,7 +26445,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="269" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>268</v>
       </c>
@@ -26527,7 +26540,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="270" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
@@ -26622,7 +26635,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="271" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
@@ -26717,7 +26730,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="272" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>271</v>
       </c>
@@ -26812,7 +26825,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="273" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>272</v>
       </c>
@@ -26907,7 +26920,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="274" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>273</v>
       </c>
@@ -27002,7 +27015,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="275" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>274</v>
       </c>
@@ -27097,7 +27110,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="276" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>275</v>
       </c>
@@ -27192,7 +27205,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="277" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>276</v>
       </c>
@@ -27287,7 +27300,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="278" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>277</v>
       </c>
@@ -27382,7 +27395,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="279" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>278</v>
       </c>
@@ -27477,7 +27490,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="280" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>279</v>
       </c>
@@ -27572,7 +27585,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="281" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>280</v>
       </c>
@@ -27667,7 +27680,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="282" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>281</v>
       </c>
@@ -27762,7 +27775,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="283" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>282</v>
       </c>
@@ -27857,7 +27870,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="284" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>283</v>
       </c>
@@ -27952,7 +27965,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="285" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>284</v>
       </c>
@@ -28047,7 +28060,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="286" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>285</v>
       </c>
@@ -28142,7 +28155,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="287" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>286</v>
       </c>
@@ -28237,7 +28250,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="288" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>287</v>
       </c>
@@ -28332,7 +28345,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="289" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>288</v>
       </c>
@@ -28427,7 +28440,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="290" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>289</v>
       </c>
@@ -28522,7 +28535,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="291" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>290</v>
       </c>
@@ -28617,7 +28630,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="292" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>291</v>
       </c>
@@ -28712,7 +28725,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="293" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>292</v>
       </c>
@@ -28807,7 +28820,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="294" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>293</v>
       </c>
@@ -28902,7 +28915,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="295" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>294</v>
       </c>
@@ -28997,7 +29010,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="296" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>295</v>
       </c>
@@ -29092,7 +29105,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="297" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>296</v>
       </c>
@@ -29187,7 +29200,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="298" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>297</v>
       </c>
@@ -29282,7 +29295,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="299" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>298</v>
       </c>
@@ -29377,7 +29390,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="300" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>299</v>
       </c>
@@ -29472,7 +29485,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="301" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>300</v>
       </c>
@@ -29567,7 +29580,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="302" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>301</v>
       </c>
@@ -29662,7 +29675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>302</v>
       </c>
@@ -29757,7 +29770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>303</v>
       </c>
@@ -29852,7 +29865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>304</v>
       </c>
@@ -29947,7 +29960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>305</v>
       </c>
@@ -30042,7 +30055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>306</v>
       </c>
@@ -30137,7 +30150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>307</v>
       </c>
@@ -30232,7 +30245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>308</v>
       </c>
@@ -30327,7 +30340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>309</v>
       </c>
@@ -30422,7 +30435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>310</v>
       </c>
@@ -30517,7 +30530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>311</v>
       </c>
@@ -30612,7 +30625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>312</v>
       </c>
@@ -30707,7 +30720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>313</v>
       </c>
@@ -30802,7 +30815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>314</v>
       </c>
@@ -30897,7 +30910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>315</v>
       </c>
@@ -30992,7 +31005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>316</v>
       </c>
@@ -31087,7 +31100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>317</v>
       </c>
@@ -31182,7 +31195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>318</v>
       </c>
@@ -31277,7 +31290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>319</v>
       </c>
@@ -31372,7 +31385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>320</v>
       </c>
@@ -31467,7 +31480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>321</v>
       </c>
@@ -31562,7 +31575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>322</v>
       </c>
@@ -31657,7 +31670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>323</v>
       </c>
@@ -31752,7 +31765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>324</v>
       </c>
@@ -31847,7 +31860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>325</v>
       </c>
@@ -31942,7 +31955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>326</v>
       </c>
@@ -32037,7 +32050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>327</v>
       </c>
@@ -32132,7 +32145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>328</v>
       </c>
@@ -32227,7 +32240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>329</v>
       </c>
@@ -32322,7 +32335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>330</v>
       </c>
@@ -32417,7 +32430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>331</v>
       </c>
@@ -32512,7 +32525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>332</v>
       </c>
@@ -32607,7 +32620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>333</v>
       </c>
@@ -32702,7 +32715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>334</v>
       </c>
@@ -32797,7 +32810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>335</v>
       </c>
@@ -32892,7 +32905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>336</v>
       </c>
@@ -32987,7 +33000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>337</v>
       </c>
@@ -33082,7 +33095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>338</v>
       </c>
@@ -33177,7 +33190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>339</v>
       </c>
@@ -33272,7 +33285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>340</v>
       </c>
@@ -33367,7 +33380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>341</v>
       </c>
@@ -33462,7 +33475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>342</v>
       </c>
@@ -33557,7 +33570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>343</v>
       </c>
@@ -33652,7 +33665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>344</v>
       </c>
@@ -33747,7 +33760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>345</v>
       </c>
@@ -33842,7 +33855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>346</v>
       </c>
@@ -33937,7 +33950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>347</v>
       </c>
@@ -34032,7 +34045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>348</v>
       </c>
@@ -34127,7 +34140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>349</v>
       </c>
@@ -34222,7 +34235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>350</v>
       </c>
@@ -34317,7 +34330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>351</v>
       </c>
@@ -34412,7 +34425,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="353" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>352</v>
       </c>
@@ -34507,7 +34520,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="354" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>353</v>
       </c>
@@ -34602,7 +34615,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="355" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>354</v>
       </c>
@@ -34697,7 +34710,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="356" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>355</v>
       </c>
@@ -34792,7 +34805,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="357" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>356</v>
       </c>
@@ -34887,7 +34900,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="358" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>357</v>
       </c>
@@ -34982,7 +34995,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="359" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>358</v>
       </c>
@@ -35077,7 +35090,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="360" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>359</v>
       </c>
@@ -35172,7 +35185,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="361" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>360</v>
       </c>
@@ -35267,7 +35280,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="362" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>361</v>
       </c>
@@ -35362,7 +35375,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="363" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>362</v>
       </c>
@@ -35457,7 +35470,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="364" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>363</v>
       </c>
@@ -35552,7 +35565,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="365" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>364</v>
       </c>
@@ -35647,7 +35660,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="366" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>365</v>
       </c>
@@ -35742,7 +35755,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="367" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>366</v>
       </c>
@@ -35837,7 +35850,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="368" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>367</v>
       </c>
@@ -35932,7 +35945,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="369" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>368</v>
       </c>
@@ -36027,7 +36040,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="370" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>369</v>
       </c>
@@ -36122,7 +36135,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="371" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>370</v>
       </c>
@@ -36217,7 +36230,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="372" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>371</v>
       </c>
@@ -36312,7 +36325,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="373" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>372</v>
       </c>
@@ -36407,7 +36420,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="374" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>373</v>
       </c>
@@ -36502,7 +36515,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="375" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>374</v>
       </c>
@@ -36597,7 +36610,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="376" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>375</v>
       </c>
@@ -36692,7 +36705,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="377" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>376</v>
       </c>
@@ -36787,7 +36800,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="378" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>377</v>
       </c>
@@ -36882,7 +36895,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="379" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>378</v>
       </c>
@@ -36977,7 +36990,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="380" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>379</v>
       </c>
@@ -37072,7 +37085,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="381" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>380</v>
       </c>
@@ -37167,7 +37180,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="382" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>381</v>
       </c>
@@ -37262,7 +37275,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="383" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>382</v>
       </c>
@@ -37357,7 +37370,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="384" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>383</v>
       </c>
@@ -37452,7 +37465,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="385" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>384</v>
       </c>
@@ -37547,7 +37560,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="386" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>385</v>
       </c>
@@ -37642,7 +37655,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="387" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>386</v>
       </c>
@@ -37737,7 +37750,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="388" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>387</v>
       </c>
@@ -37832,7 +37845,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="389" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>388</v>
       </c>
@@ -37927,7 +37940,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="390" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>389</v>
       </c>
@@ -38022,7 +38035,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="391" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>390</v>
       </c>
@@ -38117,7 +38130,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="392" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>391</v>
       </c>
@@ -38212,7 +38225,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="393" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>392</v>
       </c>
@@ -38307,7 +38320,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="394" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>393</v>
       </c>
@@ -38402,7 +38415,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="395" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>394</v>
       </c>
@@ -38497,7 +38510,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="396" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>395</v>
       </c>
@@ -38592,7 +38605,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="397" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>396</v>
       </c>
@@ -38687,7 +38700,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="398" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>397</v>
       </c>
@@ -38782,7 +38795,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="399" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>398</v>
       </c>
@@ -38877,7 +38890,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="400" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>399</v>
       </c>
@@ -38972,7 +38985,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="401" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>400</v>
       </c>
@@ -39067,7 +39080,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="402" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>401</v>
       </c>
@@ -39162,7 +39175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>402</v>
       </c>
@@ -39257,7 +39270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>403</v>
       </c>
@@ -39352,7 +39365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>404</v>
       </c>
@@ -39447,7 +39460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>405</v>
       </c>
@@ -39542,7 +39555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>406</v>
       </c>
@@ -39637,7 +39650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>407</v>
       </c>
@@ -39732,7 +39745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>408</v>
       </c>
@@ -39827,7 +39840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>409</v>
       </c>
@@ -39922,7 +39935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>410</v>
       </c>
@@ -40017,7 +40030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>411</v>
       </c>
@@ -40112,7 +40125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>412</v>
       </c>
@@ -40207,7 +40220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>413</v>
       </c>
@@ -40302,7 +40315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>414</v>
       </c>
@@ -40397,7 +40410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>415</v>
       </c>
@@ -40492,7 +40505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>416</v>
       </c>
@@ -40587,7 +40600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>417</v>
       </c>
@@ -40682,7 +40695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>418</v>
       </c>
@@ -40777,7 +40790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>419</v>
       </c>
@@ -40872,7 +40885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>420</v>
       </c>
@@ -40967,7 +40980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>421</v>
       </c>
@@ -41062,7 +41075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>422</v>
       </c>
@@ -41157,7 +41170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>423</v>
       </c>
@@ -41252,7 +41265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>424</v>
       </c>
@@ -41347,7 +41360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>425</v>
       </c>
@@ -41442,7 +41455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>426</v>
       </c>
@@ -41537,7 +41550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>427</v>
       </c>
@@ -41632,7 +41645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>428</v>
       </c>
@@ -41727,7 +41740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>429</v>
       </c>
@@ -41822,7 +41835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>430</v>
       </c>
@@ -41917,7 +41930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>431</v>
       </c>
@@ -42012,7 +42025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>432</v>
       </c>
@@ -42107,7 +42120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>433</v>
       </c>
@@ -42202,7 +42215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>434</v>
       </c>
@@ -42297,7 +42310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>435</v>
       </c>
@@ -42392,7 +42405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>436</v>
       </c>
@@ -42487,7 +42500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>437</v>
       </c>
@@ -42582,7 +42595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>438</v>
       </c>
@@ -42677,7 +42690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>439</v>
       </c>
@@ -42772,7 +42785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>440</v>
       </c>
@@ -42867,7 +42880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>441</v>
       </c>
@@ -42962,7 +42975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>442</v>
       </c>
@@ -43057,7 +43070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>443</v>
       </c>
@@ -43152,7 +43165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>444</v>
       </c>
@@ -43247,7 +43260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>445</v>
       </c>
@@ -43342,7 +43355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>446</v>
       </c>
@@ -43437,7 +43450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>447</v>
       </c>
@@ -43532,7 +43545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>448</v>
       </c>
@@ -43627,7 +43640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>449</v>
       </c>
@@ -43722,7 +43735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>450</v>
       </c>
@@ -43817,7 +43830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>451</v>
       </c>
@@ -43912,7 +43925,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="453" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>452</v>
       </c>
@@ -44007,7 +44020,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="454" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>453</v>
       </c>
@@ -44102,7 +44115,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="455" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>454</v>
       </c>
@@ -44197,7 +44210,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="456" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>455</v>
       </c>
@@ -44292,7 +44305,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="457" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>456</v>
       </c>
@@ -44387,7 +44400,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="458" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>457</v>
       </c>
@@ -44482,7 +44495,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="459" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>458</v>
       </c>
@@ -44577,7 +44590,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="460" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>459</v>
       </c>
@@ -44672,7 +44685,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="461" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>460</v>
       </c>
@@ -44767,7 +44780,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="462" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>461</v>
       </c>
@@ -44862,7 +44875,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="463" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>462</v>
       </c>
@@ -44957,7 +44970,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="464" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>463</v>
       </c>
@@ -45052,7 +45065,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="465" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>464</v>
       </c>
@@ -45147,7 +45160,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="466" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>465</v>
       </c>
@@ -45242,7 +45255,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="467" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>466</v>
       </c>
@@ -45337,7 +45350,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="468" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>467</v>
       </c>
@@ -45432,7 +45445,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="469" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>468</v>
       </c>
@@ -45527,7 +45540,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="470" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>469</v>
       </c>
@@ -45622,7 +45635,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="471" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>470</v>
       </c>
@@ -45717,7 +45730,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="472" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>471</v>
       </c>
@@ -45812,7 +45825,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="473" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>472</v>
       </c>
@@ -45907,7 +45920,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="474" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>473</v>
       </c>
@@ -46002,7 +46015,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="475" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>474</v>
       </c>
@@ -46097,7 +46110,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="476" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>475</v>
       </c>
@@ -46192,7 +46205,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="477" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>476</v>
       </c>
@@ -46287,7 +46300,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="478" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>477</v>
       </c>
@@ -46382,7 +46395,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="479" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>478</v>
       </c>
@@ -46477,7 +46490,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="480" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>479</v>
       </c>
@@ -46572,7 +46585,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="481" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>480</v>
       </c>
@@ -46667,7 +46680,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="482" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>481</v>
       </c>
@@ -46762,7 +46775,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="483" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>482</v>
       </c>
@@ -46857,7 +46870,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="484" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>483</v>
       </c>
@@ -46952,7 +46965,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="485" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>484</v>
       </c>
@@ -47047,7 +47060,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="486" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>485</v>
       </c>
@@ -47142,7 +47155,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="487" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>486</v>
       </c>
@@ -47237,7 +47250,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="488" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>487</v>
       </c>
@@ -47332,7 +47345,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="489" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>488</v>
       </c>
@@ -47427,7 +47440,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="490" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>489</v>
       </c>
@@ -47522,7 +47535,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="491" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>490</v>
       </c>
@@ -47617,7 +47630,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="492" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>491</v>
       </c>
@@ -47712,7 +47725,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="493" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>492</v>
       </c>
@@ -47807,7 +47820,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="494" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>493</v>
       </c>
@@ -47902,7 +47915,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="495" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>494</v>
       </c>
@@ -47997,7 +48010,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="496" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>495</v>
       </c>
@@ -48092,7 +48105,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="497" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>496</v>
       </c>
@@ -48187,7 +48200,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="498" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>497</v>
       </c>
@@ -48282,7 +48295,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="499" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>498</v>
       </c>
@@ -48377,7 +48390,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="500" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>499</v>
       </c>
@@ -48472,7 +48485,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="501" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>500</v>
       </c>
@@ -48567,7 +48580,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="502" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>501</v>
       </c>
@@ -48662,7 +48675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>502</v>
       </c>
@@ -48757,7 +48770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="504" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>503</v>
       </c>
@@ -48852,7 +48865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>504</v>
       </c>
@@ -48947,7 +48960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>505</v>
       </c>
@@ -49042,7 +49055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>506</v>
       </c>
@@ -49137,7 +49150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="508" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>507</v>
       </c>
@@ -49232,7 +49245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>508</v>
       </c>
@@ -49327,7 +49340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="510" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>509</v>
       </c>
@@ -49422,7 +49435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="511" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>510</v>
       </c>
@@ -49517,7 +49530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>511</v>
       </c>
@@ -49612,7 +49625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="513" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>512</v>
       </c>
@@ -49707,7 +49720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>513</v>
       </c>
@@ -49802,7 +49815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="515" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>514</v>
       </c>
@@ -49897,7 +49910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>515</v>
       </c>
@@ -49992,7 +50005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="517" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>516</v>
       </c>
@@ -50087,7 +50100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="518" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>517</v>
       </c>
@@ -50182,7 +50195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>518</v>
       </c>
@@ -50277,7 +50290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>519</v>
       </c>
@@ -50372,7 +50385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>520</v>
       </c>
@@ -50467,7 +50480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>521</v>
       </c>
@@ -50562,7 +50575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>522</v>
       </c>
@@ -50657,7 +50670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>523</v>
       </c>
@@ -50752,7 +50765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>524</v>
       </c>
@@ -50847,7 +50860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>525</v>
       </c>
@@ -50942,7 +50955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="527" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>526</v>
       </c>
@@ -51037,7 +51050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>527</v>
       </c>
@@ -51132,7 +51145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>528</v>
       </c>
@@ -51227,7 +51240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="530" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>529</v>
       </c>
@@ -51322,7 +51335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>530</v>
       </c>
@@ -51417,7 +51430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>531</v>
       </c>
@@ -51512,7 +51525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="533" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>532</v>
       </c>
@@ -51607,7 +51620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="534" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>533</v>
       </c>
@@ -51702,7 +51715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>534</v>
       </c>
@@ -51797,7 +51810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>535</v>
       </c>
@@ -51892,7 +51905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>536</v>
       </c>
@@ -51987,7 +52000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="538" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>537</v>
       </c>
@@ -52082,7 +52095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>538</v>
       </c>
@@ -52177,7 +52190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="540" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>539</v>
       </c>
@@ -52272,7 +52285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="541" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>540</v>
       </c>
@@ -52367,7 +52380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>541</v>
       </c>
@@ -52462,7 +52475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>542</v>
       </c>
@@ -52557,7 +52570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>543</v>
       </c>
@@ -52652,7 +52665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="545" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>544</v>
       </c>
@@ -52747,7 +52760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="546" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>545</v>
       </c>
@@ -52842,7 +52855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>546</v>
       </c>
@@ -52937,7 +52950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="548" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>547</v>
       </c>
@@ -53032,7 +53045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="549" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>548</v>
       </c>
@@ -53127,7 +53140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="550" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>549</v>
       </c>
@@ -53222,7 +53235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>550</v>
       </c>
@@ -53317,7 +53330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="552" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>551</v>
       </c>
@@ -53412,7 +53425,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="553" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>552</v>
       </c>
@@ -53507,7 +53520,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="554" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>553</v>
       </c>
@@ -53602,7 +53615,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="555" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>554</v>
       </c>
@@ -53697,7 +53710,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="556" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>555</v>
       </c>
@@ -53792,7 +53805,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="557" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>556</v>
       </c>
@@ -53887,7 +53900,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="558" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>557</v>
       </c>
@@ -53982,7 +53995,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="559" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>558</v>
       </c>
@@ -54077,7 +54090,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="560" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>559</v>
       </c>
@@ -54172,7 +54185,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="561" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>560</v>
       </c>
@@ -54267,7 +54280,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="562" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>561</v>
       </c>
@@ -54362,7 +54375,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="563" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>562</v>
       </c>
@@ -54457,7 +54470,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="564" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>563</v>
       </c>
@@ -54552,7 +54565,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="565" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>564</v>
       </c>
@@ -54647,7 +54660,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="566" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>565</v>
       </c>
@@ -54742,7 +54755,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="567" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>566</v>
       </c>
@@ -54837,7 +54850,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="568" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>567</v>
       </c>
@@ -54932,7 +54945,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="569" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>568</v>
       </c>
@@ -55027,7 +55040,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="570" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>569</v>
       </c>
@@ -55122,7 +55135,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="571" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>570</v>
       </c>
@@ -55217,7 +55230,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="572" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>571</v>
       </c>
@@ -55312,7 +55325,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="573" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>572</v>
       </c>
@@ -55407,7 +55420,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="574" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>573</v>
       </c>
@@ -55502,7 +55515,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="575" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>574</v>
       </c>
@@ -55597,7 +55610,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="576" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>575</v>
       </c>
@@ -55692,7 +55705,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="577" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>576</v>
       </c>
@@ -55787,7 +55800,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="578" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>577</v>
       </c>
@@ -55882,7 +55895,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="579" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>578</v>
       </c>
@@ -55977,7 +55990,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="580" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>579</v>
       </c>
@@ -56072,7 +56085,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="581" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>580</v>
       </c>
@@ -56167,7 +56180,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="582" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>581</v>
       </c>
@@ -56262,7 +56275,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="583" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>582</v>
       </c>
@@ -56357,7 +56370,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="584" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>583</v>
       </c>
@@ -56452,7 +56465,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="585" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>584</v>
       </c>
@@ -56547,7 +56560,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="586" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>585</v>
       </c>
@@ -56642,7 +56655,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="587" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>586</v>
       </c>
@@ -56737,7 +56750,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="588" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>587</v>
       </c>
@@ -56832,7 +56845,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="589" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>588</v>
       </c>
@@ -56927,7 +56940,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="590" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>589</v>
       </c>
@@ -57022,7 +57035,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="591" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>590</v>
       </c>
@@ -57117,7 +57130,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="592" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>591</v>
       </c>
@@ -57212,7 +57225,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="593" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>592</v>
       </c>
@@ -57307,7 +57320,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="594" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>593</v>
       </c>
@@ -57402,7 +57415,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="595" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>594</v>
       </c>
@@ -57497,7 +57510,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="596" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>595</v>
       </c>
@@ -57592,7 +57605,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="597" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>596</v>
       </c>
@@ -57687,7 +57700,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="598" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>597</v>
       </c>
@@ -57782,7 +57795,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="599" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>598</v>
       </c>
@@ -57877,7 +57890,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="600" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>599</v>
       </c>
@@ -57972,7 +57985,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="601" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>600</v>
       </c>
@@ -58068,10 +58081,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE601">
-    <filterColumn colId="23">
+  <autoFilter ref="A1:AE601" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="30">
       <filters>
-        <filter val="350"/>
+        <filter val="3.5"/>
       </filters>
     </filterColumn>
   </autoFilter>
